--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2053186666666666</v>
+        <v>0.7663920000000001</v>
       </c>
       <c r="H2">
-        <v>0.6159559999999999</v>
+        <v>2.299176</v>
       </c>
       <c r="I2">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346924</v>
       </c>
       <c r="J2">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346925</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>33.61312654599288</v>
+        <v>122.226983783168</v>
       </c>
       <c r="R2">
-        <v>302.518138913936</v>
+        <v>1100.042854048512</v>
       </c>
       <c r="S2">
-        <v>0.1159015740761386</v>
+        <v>0.1426850254280123</v>
       </c>
       <c r="T2">
-        <v>0.1159015740761386</v>
+        <v>0.1426850254280123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2053186666666666</v>
+        <v>0.7663920000000001</v>
       </c>
       <c r="H3">
-        <v>0.6159559999999999</v>
+        <v>2.299176</v>
       </c>
       <c r="I3">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346924</v>
       </c>
       <c r="J3">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346925</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>35.429480526044</v>
+        <v>132.247451632824</v>
       </c>
       <c r="R3">
-        <v>318.8653247343959</v>
+        <v>1190.227064695416</v>
       </c>
       <c r="S3">
-        <v>0.1221645524717761</v>
+        <v>0.1543826936979351</v>
       </c>
       <c r="T3">
-        <v>0.1221645524717761</v>
+        <v>0.1543826936979351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2053186666666666</v>
+        <v>0.7663920000000001</v>
       </c>
       <c r="H4">
-        <v>0.6159559999999999</v>
+        <v>2.299176</v>
       </c>
       <c r="I4">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346924</v>
       </c>
       <c r="J4">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346925</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>22.89060125003422</v>
+        <v>57.010142521288</v>
       </c>
       <c r="R4">
-        <v>206.015411250308</v>
+        <v>513.091282691592</v>
       </c>
       <c r="S4">
-        <v>0.07892918597732977</v>
+        <v>0.06655235516353131</v>
       </c>
       <c r="T4">
-        <v>0.07892918597732977</v>
+        <v>0.06655235516353133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2053186666666666</v>
+        <v>0.7663920000000001</v>
       </c>
       <c r="H5">
-        <v>0.6159559999999999</v>
+        <v>2.299176</v>
       </c>
       <c r="I5">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346924</v>
       </c>
       <c r="J5">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346925</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>12.26457983378222</v>
+        <v>44.768493108152</v>
       </c>
       <c r="R5">
-        <v>110.38121850404</v>
+        <v>402.916437973368</v>
       </c>
       <c r="S5">
-        <v>0.04228955334377501</v>
+        <v>0.05226172960990737</v>
       </c>
       <c r="T5">
-        <v>0.042289553343775</v>
+        <v>0.05226172960990738</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2053186666666666</v>
+        <v>0.7663920000000001</v>
       </c>
       <c r="H6">
-        <v>0.6159559999999999</v>
+        <v>2.299176</v>
       </c>
       <c r="I6">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346924</v>
       </c>
       <c r="J6">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346925</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>17.85409698870355</v>
+        <v>53.45294197267201</v>
       </c>
       <c r="R6">
-        <v>160.686872898332</v>
+        <v>481.076477754048</v>
       </c>
       <c r="S6">
-        <v>0.06156279279368251</v>
+        <v>0.0623997594353063</v>
       </c>
       <c r="T6">
-        <v>0.06156279279368249</v>
+        <v>0.06239975943530632</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2825506666666667</v>
+        <v>0.8359946666666667</v>
       </c>
       <c r="H7">
-        <v>0.8476520000000001</v>
+        <v>2.507984</v>
       </c>
       <c r="I7">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653075</v>
       </c>
       <c r="J7">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653076</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>46.25693059725689</v>
+        <v>133.3274702312676</v>
       </c>
       <c r="R7">
-        <v>416.312375375312</v>
+        <v>1199.947232081408</v>
       </c>
       <c r="S7">
-        <v>0.1594987321639647</v>
+        <v>0.1556434830622135</v>
       </c>
       <c r="T7">
-        <v>0.1594987321639647</v>
+        <v>0.1556434830622135</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2825506666666667</v>
+        <v>0.8359946666666667</v>
       </c>
       <c r="H8">
-        <v>0.8476520000000001</v>
+        <v>2.507984</v>
       </c>
       <c r="I8">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653075</v>
       </c>
       <c r="J8">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653076</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
-        <v>48.756518366348</v>
+        <v>144.257983180016</v>
       </c>
       <c r="R8">
-        <v>438.808665297132</v>
+        <v>1298.321848620144</v>
       </c>
       <c r="S8">
-        <v>0.1681175720860029</v>
+        <v>0.1684035174650927</v>
       </c>
       <c r="T8">
-        <v>0.1681175720860029</v>
+        <v>0.1684035174650928</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2825506666666667</v>
+        <v>0.8359946666666667</v>
       </c>
       <c r="H9">
-        <v>0.8476520000000001</v>
+        <v>2.507984</v>
       </c>
       <c r="I9">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653075</v>
       </c>
       <c r="J9">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653076</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>31.50105515782622</v>
+        <v>62.18772520290311</v>
       </c>
       <c r="R9">
-        <v>283.5094964204361</v>
+        <v>559.689526826128</v>
       </c>
       <c r="S9">
-        <v>0.1086189311445225</v>
+        <v>0.07259654846451681</v>
       </c>
       <c r="T9">
-        <v>0.1086189311445225</v>
+        <v>0.07259654846451684</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2825506666666667</v>
+        <v>0.8359946666666667</v>
       </c>
       <c r="H10">
-        <v>0.8476520000000001</v>
+        <v>2.507984</v>
       </c>
       <c r="I10">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653075</v>
       </c>
       <c r="J10">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653076</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>16.87798418274222</v>
+        <v>48.83430603805689</v>
       </c>
       <c r="R10">
-        <v>151.90185764468</v>
+        <v>439.508754342512</v>
       </c>
       <c r="S10">
-        <v>0.05819705380085197</v>
+        <v>0.05700806796607737</v>
       </c>
       <c r="T10">
-        <v>0.05819705380085197</v>
+        <v>0.05700806796607739</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2825506666666667</v>
+        <v>0.8359946666666667</v>
       </c>
       <c r="H11">
-        <v>0.8476520000000001</v>
+        <v>2.507984</v>
       </c>
       <c r="I11">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653075</v>
       </c>
       <c r="J11">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653076</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>24.57003588027156</v>
+        <v>58.30746459618133</v>
       </c>
       <c r="R11">
-        <v>221.130322922444</v>
+        <v>524.767181365632</v>
       </c>
       <c r="S11">
-        <v>0.08472005214195587</v>
+        <v>0.06806681970740701</v>
       </c>
       <c r="T11">
-        <v>0.08472005214195585</v>
+        <v>0.06806681970740704</v>
       </c>
     </row>
   </sheetData>
